--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Food impaction_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Food impaction_spec_overall.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is a common symptom associated with food impaction, indicating a potential obstruction in the esophagus.</t>
+          <t>Difficulty swallowing solids is a common symptom of food impaction, indicating a physical obstruction in the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If antacids are no longer providing relief, it may suggest that the symptoms are not due to food impaction but rather to another underlying condition such as esophagitis or a motility disorder.</t>
+          <t>If antacids are no longer providing relief, it may suggest that the symptoms are not due to food impaction but rather to another underlying condition such as esophagitis or GERD.</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Odynophagia, or pain during swallowing, is often reported in cases of food impaction due to irritation or obstruction in the esophagus.</t>
+          <t>Odynophagia is often associated with food impaction, as the presence of an obstructing food bolus can cause pain during swallowing.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reflux can contribute to food impaction by causing esophageal inflammation or narrowing, making it more likely for food to become stuck.</t>
+          <t>Reflux can be a contributing factor to food impaction, as it may indicate esophageal motility issues or structural abnormalities.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms suggest a different underlying issue, such as GERD, rather than food impaction, which is usually characterized by more recent onset.</t>
+          <t>Chronic reflux symptoms suggest a different underlying pathology, such as GERD, rather than food impaction, which is usually characterized by more acute episodes.</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A prolonged duration of symptoms related to food getting stuck strongly supports the diagnosis of food impaction, indicating a chronic issue.</t>
+          <t>A prolonged duration of symptoms related to food getting stuck is highly indicative of food impaction, as it suggests a chronic issue.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regurgitation relief suggests that the symptoms may be related to reflux rather than food impaction, where regurgitation typically does not provide relief.</t>
+          <t>Current heartburn is more indicative of acid reflux or esophagitis rather than food impaction, which typically presents with more specific symptoms related to swallowing.</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is a risk factor for esophageal problems, including food impaction; its absence suggests a lower risk.</t>
+          <t>Alcohol use disorder is a risk factor for esophageal issues; its absence suggests a lower likelihood of food impaction.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence can lead to esophageal motility disorders; its absence suggests a lower likelihood of food impaction.</t>
+          <t>Nicotine dependence can lead to esophageal motility disorders; its absence may indicate a lower risk of food impaction.</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation treatment can lead to esophageal strictures, increasing the risk of food impaction; its absence suggests a lower risk.</t>
+          <t>Radiation treatment can lead to esophageal strictures, which increase the risk of food impaction; its absence suggests a lower risk.</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for esophageal issues; its absence suggests a lower likelihood of food impaction.</t>
+          <t>Obesity is a risk factor for esophageal problems; its absence may indicate a lower likelihood of food impaction.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension can be associated with other comorbidities that may increase the risk of food impaction; its absence suggests a lower risk.</t>
+          <t>Hypertension can be associated with other comorbidities affecting esophageal motility; its absence may suggest a lower risk of food impaction.</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can lead to behaviors that increase the risk of food impaction, such as neglecting proper eating habits or consuming inappropriate food.</t>
+          <t>Social stress can lead to behaviors that increase the risk of food impaction, such as neglecting proper eating habits or consuming inappropriate food types.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of alcohol use reduces the likelihood of gastrointestinal complications that can lead to food impaction.</t>
+          <t>Absence of alcohol use is a strong indicator against food impaction, as alcohol can contribute to gastrointestinal issues that may lead to such conditions.</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use can contribute to gastrointestinal issues, which may increase the risk of food impaction.</t>
+          <t>Tobacco use can contribute to gastrointestinal issues, which may increase the likelihood of food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a risk factor for gastrointestinal issues; its absence suggests a lower risk of food impaction.</t>
+          <t>Current tobacco use is often associated with gastrointestinal problems; its absence suggests a lower likelihood of food impaction.</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of autoimmune conditions may suggest a lower risk of related complications that could lead to food impaction.</t>
+          <t>While this finding is not directly supportive, the absence of autoimmune conditions may suggest a lower risk of related complications that could lead to food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of cancer in the family may indicate a lower risk of malignancies that could obstruct the gastrointestinal tract, thus supporting the likelihood of food impaction.</t>
+          <t>Similar to the previous finding, the absence of cancer may indicate a lower risk of malignancies that could obstruct the gastrointestinal tract, thus indirectly supporting the diagnosis of food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice is often associated with esophageal obstruction or irritation, which is not present here.</t>
+          <t>A hoarse voice can indicate esophageal obstruction or irritation, which is often present in cases of food impaction.</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of cough suggests that there is likely no aspiration or respiratory distress, which can accompany food impaction.</t>
+          <t>Absence of cough may suggest that there is no acute respiratory issue, which can sometimes accompany food impaction.</t>
         </is>
       </c>
     </row>
@@ -963,61 +963,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that there is no aspiration or respiratory involvement, which can sometimes accompany food impaction.</t>
+          <t>Absence of cough may suggest that there is no acute respiratory issue, which can sometimes accompany food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Neck masses or fullness observed is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain may indicate that there is no obstruction or irritation in the gastrointestinal tract, which is often present with food impaction.</t>
+          <t>Absence of neck masses or fullness may indicate that there is no obstruction or swelling in the area that could lead to food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Epigastric pain on palpation is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of a hoarse voice may indicate that there is no laryngeal involvement, which can occur with food impaction.</t>
+          <t>Absence of epigastric pain may indicate that there is no acute gastrointestinal distress, which can sometimes be confused with food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Joint swelling observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there is no underlying vascular issue that could contribute to esophageal motility problems.</t>
+          <t>Absence of joint swelling may suggest that there is no systemic inflammatory condition that could contribute to esophageal issues.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Halitosis observed is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain may suggest that there is no acute inflammatory process, which can sometimes accompany food impaction.</t>
+          <t>Absence of halitosis may suggest that there is no prolonged food retention in the esophagus, which is often associated with food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Rheumatoid nodules is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of joint swelling may indicate that there is no systemic inflammatory process, which can sometimes be associated with esophageal issues.</t>
+          <t>Absence of rheumatoid nodules may indicate that there is no underlying autoimmune condition that could affect the esophagus and lead to food impaction.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Food impaction_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Food impaction_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,105 +467,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is a common symptom of food impaction, indicating a physical obstruction in the esophagus.</t>
+          <t>Difficulty swallowing solids is a classic symptom of food impaction, as the obstruction typically affects solid food passage.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If antacids are no longer providing relief, it may suggest that the symptoms are not due to food impaction but rather to another underlying condition such as esophagitis or GERD.</t>
+          <t>Raynaud's phenomenon is not typically associated with food impaction and suggests other systemic conditions.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Odynophagia is often associated with food impaction, as the presence of an obstructing food bolus can cause pain during swallowing.</t>
+          <t>Pain relief with regurgitation suggests that the obstruction is relieved when food is expelled, consistent with food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than food impaction, which typically presents with more acute symptoms.</t>
+          <t>Telangiectasias are not related to food impaction and may indicate other underlying conditions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reflux can be a contributing factor to food impaction, as it may indicate esophageal motility issues or structural abnormalities.</t>
+          <t>Chest pain associated with eating is indicative of food impaction, as the obstruction can cause pain during food intake.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms suggest a different underlying pathology, such as GERD, rather than food impaction, which is usually characterized by more acute episodes.</t>
+          <t>Hand pain is not a symptom of food impaction and suggests other musculoskeletal or systemic issues.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Duration of 3 months of food getting stuck is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chest pain that occurs with eating is a classic symptom of food impaction, suggesting a direct relationship between food intake and the symptom.</t>
+          <t>A history of food getting stuck is a direct indication of possible food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weight loss can indicate a more serious underlying condition, such as malignancy or severe esophageal disease, rather than food impaction alone.</t>
+          <t>Heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Duration of 3 months of food getting stuck is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A prolonged duration of symptoms related to food getting stuck is highly indicative of food impaction, as it suggests a chronic issue.</t>
+          <t>Pain when swallowing, or odynophagia, is often associated with food impaction due to irritation or obstruction in the esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current heartburn is more indicative of acid reflux or esophagitis rather than food impaction, which typically presents with more specific symptoms related to swallowing.</t>
+          <t>Reflux symptoms are more indicative of GERD and not specific to food impaction.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Food impaction is more common in females due to anatomical differences in the esophagus.</t>
+          <t>Middle age is a common demographic for food impaction due to increased risk of esophageal motility disorders.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>absence of alcohol use disorder</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is a risk factor for esophageal issues; its absence suggests a lower likelihood of food impaction.</t>
+          <t>Alcohol use can exacerbate esophageal issues, so its absence reduces the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Food impaction is more prevalent in middle-aged individuals due to age-related changes in esophageal motility.</t>
+          <t>Females may have a slightly higher risk of esophageal motility disorders, which can lead to food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>absence of nicotine dependence</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence can lead to esophageal motility disorders; its absence may indicate a lower risk of food impaction.</t>
+          <t>Nicotine can affect esophageal function, so its absence reduces the risk of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine can cause esophageal dysmotility, increasing the risk of food impaction.</t>
+          <t>Amlodipine, a calcium channel blocker, can cause esophageal motility issues, potentially leading to food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>absence of prior treatment with radiation to the neck, arm, or jaw</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation treatment can lead to esophageal strictures, which increase the risk of food impaction; its absence suggests a lower risk.</t>
+          <t>Radiation can cause esophageal strictures, so its absence reduces the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>absence of obesity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Environmental allergies can lead to esophageal inflammation, which may reduce the risk of food impaction.</t>
+          <t>While obesity is a risk factor for GERD, its absence does not strongly argue against food impaction, which can occur independently.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>absence of diagnosed hypertension</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for esophageal problems; its absence may indicate a lower likelihood of food impaction.</t>
+          <t>Hypertension is often associated with lifestyle factors that can contribute to esophageal issues, so its absence slightly reduces the risk.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of asthma</t>
+          <t>absence of recent medication changes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Asthma can be associated with esophageal issues; its absence may suggest a higher likelihood of food impaction.</t>
+          <t>Stable medication use suggests that any esophageal symptoms are not due to recent changes, supporting a chronic issue like food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>absence of type 2 diabetes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension can be associated with other comorbidities affecting esophageal motility; its absence may suggest a lower risk of food impaction.</t>
+          <t>Diabetes can lead to gastroparesis and esophageal motility disorders, so its absence reduces the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
@@ -763,12 +764,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can lead to behaviors that increase the risk of food impaction, such as neglecting proper eating habits or consuming inappropriate food types.</t>
+          <t>Prior tobacco use can lead to esophageal changes that may predispose to food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -778,19 +779,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of alcohol use is a strong indicator against food impaction, as alcohol can contribute to gastrointestinal issues that may lead to such conditions.</t>
+          <t>Alcohol use can contribute to esophageal motility disorders, so its absence reduces the likelihood of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use can contribute to gastrointestinal issues, which may increase the likelihood of food impaction.</t>
+          <t>Stress can affect eating habits and esophageal motility, potentially increasing the risk of food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -800,7 +801,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is often associated with gastrointestinal problems; its absence suggests a lower likelihood of food impaction.</t>
+          <t>Current tobacco use can exacerbate esophageal issues, so its absence is a point against food impaction.</t>
         </is>
       </c>
     </row>
@@ -812,17 +813,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular issues may suggest a predisposition to conditions that can affect swallowing or digestion, potentially leading to food impaction.</t>
+          <t>While not directly related, cardiovascular issues can sometimes correlate with esophageal motility disorders.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Travel can sometimes lead to dietary changes or exposure to different foods that may increase the risk of food impaction; its absence suggests a lower risk.</t>
+          <t>Certain cancers can affect esophageal function, so the absence of a family history reduces the likelihood of related esophageal issues.</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While this finding is not directly supportive, the absence of autoimmune conditions may suggest a lower risk of related complications that could lead to food impaction.</t>
+          <t>The absence of autoimmune conditions in the family may not directly support food impaction but does not rule out esophageal motility issues.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,19 +845,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of complications that could lead to food impaction.</t>
+          <t>Recent medical procedures, especially involving the esophagus, could predispose to food impaction, so their absence is a point against it.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to the previous finding, the absence of cancer may indicate a lower risk of malignancies that could obstruct the gastrointestinal tract, thus indirectly supporting the diagnosis of food impaction.</t>
+          <t>Absence of recent travel reduces the likelihood of exposure to new dietary habits or stressors that could affect esophageal function.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications suggests a lower likelihood of related gastrointestinal issues that could lead to food impaction.</t>
+          <t>While not directly related, complications could indicate systemic issues that might affect esophageal function, so their absence is a point against food impaction.</t>
         </is>
       </c>
     </row>
@@ -914,110 +915,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can occur due to difficulty swallowing or eating, which may be associated with food impaction.</t>
+          <t>Telangiectasias can be associated with conditions that lead to esophageal dysmotility, which can predispose to food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Epigastric pain on palpation is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate esophageal obstruction or irritation, which is often present in cases of food impaction.</t>
+          <t>Epigastric pain can be associated with esophageal or gastric issues, including food impaction, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with esophageal conditions that may lead to food impaction.</t>
+          <t>Weight loss can be a consequence of difficulty swallowing or eating due to food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Neck masses or fullness observed is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that there is no acute respiratory issue, which can sometimes accompany food impaction.</t>
+          <t>Neck masses or fullness could indicate esophageal obstruction, so their absence argues against food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Halitosis observed is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that there is no acute respiratory issue, which can sometimes accompany food impaction.</t>
+          <t>While halitosis is often present in food impaction, its absence does not strongly rule out the condition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Neck masses or fullness observed is absent.</t>
+          <t>Hand thickening observed is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of neck masses or fullness may indicate that there is no obstruction or swelling in the area that could lead to food impaction.</t>
+          <t>Hand thickening can be associated with systemic sclerosis, which can lead to esophageal dysmotility and food impaction, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Cough observed is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain may indicate that there is no acute gastrointestinal distress, which can sometimes be confused with food impaction.</t>
+          <t>Cough can be associated with aspiration due to food impaction, but its absence does not strongly rule out the condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Finger ulcers observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of joint swelling may suggest that there is no systemic inflammatory condition that could contribute to esophageal issues.</t>
+          <t>Finger ulcers can be associated with systemic conditions that affect the esophagus, so their absence argues against food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Halitosis observed is absent.</t>
+          <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of halitosis may suggest that there is no prolonged food retention in the esophagus, which is often associated with food impaction.</t>
+          <t>Hoarseness can occur if there is pressure on the larynx from esophageal issues, but its absence does not strongly rule out food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rheumatoid nodules is absent.</t>
+          <t>Weakness on exam is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of rheumatoid nodules may indicate that there is no underlying autoimmune condition that could affect the esophagus and lead to food impaction.</t>
+          <t>General weakness can be associated with systemic conditions that might lead to esophageal issues, so its absence argues against food impaction.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Food impaction</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Food impaction</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Food impaction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Food impaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to food impaction, but its presence does not rule out the condition.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS suggests that there is no significant obstruction or dysfunction leading to aspiration, which might be expected in severe food impaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of ANA strong positive does not directly relate to food impaction, but it does not support autoimmune causes that might mimic or contribute to esophageal issues.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>While ILD is not directly related to food impaction, its absence suggests no underlying lung pathology that might complicate or mimic esophageal symptoms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS does not rule out food impaction, as food impaction can occur without aspiration.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR suggests no significant esophageal or mediastinal mass effect, which might be seen in severe cases of food impaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly relate to food impaction, but it rules out interstitial lung disease that might complicate or mimic symptoms.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of ANA strong positive suggests no autoimmune process that might contribute to esophageal dysfunction, indirectly arguing against food impaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR does not rule out food impaction, as this finding is more related to other thoracic conditions.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is unrelated to food impaction and does not provide evidence for or against the diagnosis.</t>
         </is>
       </c>
     </row>
